--- a/biology/Zoologie/Conus_empressae/Conus_empressae.xlsx
+++ b/biology/Zoologie/Conus_empressae/Conus_empressae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus empressae est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille atteint 25 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large des Philippines et de l'Australie.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce a une répartition inégale aux Philippines, à Sabah et en Indonésie. Elle est peu commune dans toute son aire de répartition, mais il n'y a pas de menaces majeures. Elle est actuellement inscrite dans la catégorie préoccupation mineure[1].
 </t>
         </is>
       </c>
@@ -573,19 +587,130 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce a une répartition inégale aux Philippines, à Sabah et en Indonésie. Elle est peu commune dans toute son aire de répartition, mais il n'y a pas de menaces majeures. Elle est actuellement inscrite dans la catégorie préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_empressae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_empressae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus empressae a été décrite pour la première fois en 2001 par le malacologiste allemand Felix Lorenz (d)[2],[3],[4].
-Synonymes
-Conus (Splinoconus) empressae Lorenz, 2001 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus empressae a été décrite pour la première fois en 2001 par le malacologiste allemand Felix Lorenz (d).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_empressae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_empressae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Splinoconus) empressae Lorenz, 2001 · appellation alternative
 Nitidoconus empressae (Lorenz, 2001) · non accepté
-Rolaniconus empressae (Lorenz, 2001) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus empressae dans les principales bases sont les suivants :
+Rolaniconus empressae (Lorenz, 2001) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_empressae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_empressae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus empressae dans les principales bases sont les suivants :
 CoL : XXC8 - GBIF : 6511029 - iNaturalist : 431952 - IRMNG : 11704018 - TAXREF : 155492 - UICN : 192423 - WoRMS : 426486
 </t>
         </is>
